--- a/Hardware/Nomenclature des composants_carte_traitement.xlsx
+++ b/Hardware/Nomenclature des composants_carte_traitement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jingw\Documents\GitHub\2324_Projet3DN_AnalyseurQualiteReseauElectrique\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4A0B1F-DF2D-41B4-B1FC-EB9CA131E013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4A4595-FA2C-498A-8D83-0F708543059B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Nomenclature des composants</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Repère CI</t>
   </si>
   <si>
-    <t>MOUSER</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -72,12 +69,6 @@
     <t>LED Orange</t>
   </si>
   <si>
-    <t>517-88715-5005-15P</t>
-  </si>
-  <si>
-    <t>88715-5005, 15P D-SUB</t>
-  </si>
-  <si>
     <t>Prix total</t>
   </si>
   <si>
@@ -169,6 +160,9 @@
   </si>
   <si>
     <t>R3 à R10</t>
+  </si>
+  <si>
+    <t>710-618015231321</t>
   </si>
 </sst>
 </file>
@@ -280,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -317,6 +311,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -663,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,13 +726,13 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -750,22 +747,22 @@
       <c r="I6" s="6"/>
       <c r="L6" s="11">
         <f>SUM(I7:I48)</f>
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="N6" s="12">
         <f>L6+M6</f>
-        <v>3.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="8">
         <v>3132418</v>
@@ -777,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6">
@@ -798,16 +795,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
@@ -816,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6">
@@ -837,10 +834,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="8"/>
@@ -851,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6">
@@ -872,7 +869,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -884,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6">
@@ -894,7 +891,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -906,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6">
@@ -927,10 +924,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="8"/>
@@ -941,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6">
@@ -962,30 +959,30 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>16</v>
+      <c r="C18" s="15">
+        <v>618015231321</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E18" s="7">
         <v>1</v>
       </c>
       <c r="F18" s="6">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6">
         <f t="shared" ref="I18" si="2">E18*F18</f>
-        <v>3.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1001,10 +998,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="8"/>
@@ -1015,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6">
@@ -1036,10 +1033,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
@@ -1050,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6">
@@ -1060,10 +1057,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
@@ -1074,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6">
@@ -1084,10 +1081,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
@@ -1098,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6">
@@ -1108,10 +1105,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
@@ -1122,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6">
@@ -1143,10 +1140,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -1157,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6">
@@ -1178,10 +1175,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
@@ -1192,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6">
@@ -1213,10 +1210,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="8"/>
@@ -1227,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6">
@@ -1248,10 +1245,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="8"/>
@@ -1262,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6">

--- a/Hardware/Nomenclature des composants_carte_traitement.xlsx
+++ b/Hardware/Nomenclature des composants_carte_traitement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jingw\Documents\GitHub\2324_Projet3DN_AnalyseurQualiteReseauElectrique\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4A4595-FA2C-498A-8D83-0F708543059B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CC6861-1EC0-41E7-9F24-65A7B8A8B854}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>Nomenclature des composants</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>710-618015231321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                             </t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
   </si>
 </sst>
 </file>
@@ -306,14 +315,14 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -660,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -677,30 +686,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -871,7 +880,9 @@
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7">
@@ -893,7 +904,9 @@
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7">
@@ -964,7 +977,7 @@
       <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>618015231321</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -1086,7 +1099,9 @@
       <c r="B24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7">
         <v>5</v>
